--- a/natmiOut/OldD0/LR-pairs_lrc2p/Rarres2-Ccrl2.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Rarres2-Ccrl2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.24034556824148</v>
+        <v>1.248266</v>
       </c>
       <c r="H2">
-        <v>1.24034556824148</v>
+        <v>3.744798</v>
       </c>
       <c r="I2">
-        <v>0.008690271165290434</v>
+        <v>0.008714053836811378</v>
       </c>
       <c r="J2">
-        <v>0.008690271165290434</v>
+        <v>0.00871405383681138</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.7506702314956</v>
+        <v>225.0583296666667</v>
       </c>
       <c r="N2">
-        <v>11.7506702314956</v>
+        <v>675.1749890000001</v>
       </c>
       <c r="O2">
-        <v>0.6875198802979974</v>
+        <v>0.9737108605561615</v>
       </c>
       <c r="P2">
-        <v>0.6875198802979974</v>
+        <v>0.9737108605561614</v>
       </c>
       <c r="Q2">
-        <v>14.57489174550265</v>
+        <v>280.9326609396914</v>
       </c>
       <c r="R2">
-        <v>14.57489174550265</v>
+        <v>2528.393948457222</v>
       </c>
       <c r="S2">
-        <v>0.005974734191317617</v>
+        <v>0.008484968860374328</v>
       </c>
       <c r="T2">
-        <v>0.005974734191317617</v>
+        <v>0.008484968860374328</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.24034556824148</v>
+        <v>1.248266</v>
       </c>
       <c r="H3">
-        <v>1.24034556824148</v>
+        <v>3.744798</v>
       </c>
       <c r="I3">
-        <v>0.008690271165290434</v>
+        <v>0.008714053836811378</v>
       </c>
       <c r="J3">
-        <v>0.008690271165290434</v>
+        <v>0.00871405383681138</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>5.34071951333972</v>
+        <v>0.6111386666666666</v>
       </c>
       <c r="N3">
-        <v>5.34071951333972</v>
+        <v>1.833416</v>
       </c>
       <c r="O3">
-        <v>0.3124801197020026</v>
+        <v>0.00264408057200329</v>
       </c>
       <c r="P3">
-        <v>0.3124801197020026</v>
+        <v>0.00264408057200329</v>
       </c>
       <c r="Q3">
-        <v>6.624337779591715</v>
+        <v>0.7628636188853333</v>
       </c>
       <c r="R3">
-        <v>6.624337779591715</v>
+        <v>6.865772569968001</v>
       </c>
       <c r="S3">
-        <v>0.002715536973972816</v>
+        <v>2.304066045330369E-05</v>
       </c>
       <c r="T3">
-        <v>0.002715536973972816</v>
+        <v>2.30406604533037E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>103.551402637565</v>
+        <v>1.248266</v>
       </c>
       <c r="H4">
-        <v>103.551402637565</v>
+        <v>3.744798</v>
       </c>
       <c r="I4">
-        <v>0.7255153656431765</v>
+        <v>0.008714053836811378</v>
       </c>
       <c r="J4">
-        <v>0.7255153656431765</v>
+        <v>0.00871405383681138</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.7506702314956</v>
+        <v>5.465192666666667</v>
       </c>
       <c r="N4">
-        <v>11.7506702314956</v>
+        <v>16.395578</v>
       </c>
       <c r="O4">
-        <v>0.6875198802979974</v>
+        <v>0.02364505887183517</v>
       </c>
       <c r="P4">
-        <v>0.6875198802979974</v>
+        <v>0.02364505887183517</v>
       </c>
       <c r="Q4">
-        <v>1216.79838440285</v>
+        <v>6.822014189249334</v>
       </c>
       <c r="R4">
-        <v>1216.79838440285</v>
+        <v>61.39812770324401</v>
       </c>
       <c r="S4">
-        <v>0.4988062373413545</v>
+        <v>0.0002060443159837462</v>
       </c>
       <c r="T4">
-        <v>0.4988062373413545</v>
+        <v>0.0002060443159837463</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>103.551402637565</v>
+        <v>103.907654</v>
       </c>
       <c r="H5">
-        <v>103.551402637565</v>
+        <v>311.722962</v>
       </c>
       <c r="I5">
-        <v>0.7255153656431765</v>
+        <v>0.7253717484997341</v>
       </c>
       <c r="J5">
-        <v>0.7255153656431765</v>
+        <v>0.7253717484997342</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.34071951333972</v>
+        <v>225.0583296666667</v>
       </c>
       <c r="N5">
-        <v>5.34071951333972</v>
+        <v>675.1749890000001</v>
       </c>
       <c r="O5">
-        <v>0.3124801197020026</v>
+        <v>0.9737108605561615</v>
       </c>
       <c r="P5">
-        <v>0.3124801197020026</v>
+        <v>0.9737108605561614</v>
       </c>
       <c r="Q5">
-        <v>553.0389967001415</v>
+        <v>23385.28304882194</v>
       </c>
       <c r="R5">
-        <v>553.0389967001415</v>
+        <v>210467.5474393975</v>
       </c>
       <c r="S5">
-        <v>0.226709128301822</v>
+        <v>0.7063023494548036</v>
       </c>
       <c r="T5">
-        <v>0.226709128301822</v>
+        <v>0.7063023494548036</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,60 +773,60 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>37.9363145496469</v>
+        <v>103.907654</v>
       </c>
       <c r="H6">
-        <v>37.9363145496469</v>
+        <v>311.722962</v>
       </c>
       <c r="I6">
-        <v>0.2657943631915331</v>
+        <v>0.7253717484997341</v>
       </c>
       <c r="J6">
-        <v>0.2657943631915331</v>
+        <v>0.7253717484997342</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>11.7506702314956</v>
+        <v>0.6111386666666666</v>
       </c>
       <c r="N6">
-        <v>11.7506702314956</v>
+        <v>1.833416</v>
       </c>
       <c r="O6">
-        <v>0.6875198802979974</v>
+        <v>0.00264408057200329</v>
       </c>
       <c r="P6">
-        <v>0.6875198802979974</v>
+        <v>0.00264408057200329</v>
       </c>
       <c r="Q6">
-        <v>445.7771220711893</v>
+        <v>63.50198512202132</v>
       </c>
       <c r="R6">
-        <v>445.7771220711893</v>
+        <v>571.5178660981919</v>
       </c>
       <c r="S6">
-        <v>0.1827389087653253</v>
+        <v>0.001917941347688203</v>
       </c>
       <c r="T6">
-        <v>0.1827389087653253</v>
+        <v>0.001917941347688204</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>37.9363145496469</v>
+        <v>103.907654</v>
       </c>
       <c r="H7">
-        <v>37.9363145496469</v>
+        <v>311.722962</v>
       </c>
       <c r="I7">
-        <v>0.2657943631915331</v>
+        <v>0.7253717484997341</v>
       </c>
       <c r="J7">
-        <v>0.2657943631915331</v>
+        <v>0.7253717484997342</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.34071951333972</v>
+        <v>5.465192666666667</v>
       </c>
       <c r="N7">
-        <v>5.34071951333972</v>
+        <v>16.395578</v>
       </c>
       <c r="O7">
-        <v>0.3124801197020026</v>
+        <v>0.02364505887183517</v>
       </c>
       <c r="P7">
-        <v>0.3124801197020026</v>
+        <v>0.02364505887183517</v>
       </c>
       <c r="Q7">
-        <v>202.6072153794927</v>
+        <v>567.8753486513373</v>
       </c>
       <c r="R7">
-        <v>202.6072153794927</v>
+        <v>5110.878137862036</v>
       </c>
       <c r="S7">
-        <v>0.08305545442620781</v>
+        <v>0.01715145769724223</v>
       </c>
       <c r="T7">
-        <v>0.08305545442620781</v>
+        <v>0.01715145769724223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>38.091531</v>
+      </c>
+      <c r="H8">
+        <v>114.274593</v>
+      </c>
+      <c r="I8">
+        <v>0.2659141976634544</v>
+      </c>
+      <c r="J8">
+        <v>0.2659141976634544</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>225.0583296666667</v>
+      </c>
+      <c r="N8">
+        <v>675.1749890000001</v>
+      </c>
+      <c r="O8">
+        <v>0.9737108605561615</v>
+      </c>
+      <c r="P8">
+        <v>0.9737108605561614</v>
+      </c>
+      <c r="Q8">
+        <v>8572.816341306056</v>
+      </c>
+      <c r="R8">
+        <v>77155.3470717545</v>
+      </c>
+      <c r="S8">
+        <v>0.2589235422409835</v>
+      </c>
+      <c r="T8">
+        <v>0.2589235422409834</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>38.091531</v>
+      </c>
+      <c r="H9">
+        <v>114.274593</v>
+      </c>
+      <c r="I9">
+        <v>0.2659141976634544</v>
+      </c>
+      <c r="J9">
+        <v>0.2659141976634544</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.6111386666666666</v>
+      </c>
+      <c r="N9">
+        <v>1.833416</v>
+      </c>
+      <c r="O9">
+        <v>0.00264408057200329</v>
+      </c>
+      <c r="P9">
+        <v>0.00264408057200329</v>
+      </c>
+      <c r="Q9">
+        <v>23.279207466632</v>
+      </c>
+      <c r="R9">
+        <v>209.512867199688</v>
+      </c>
+      <c r="S9">
+        <v>0.0007030985638617824</v>
+      </c>
+      <c r="T9">
+        <v>0.0007030985638617824</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>38.091531</v>
+      </c>
+      <c r="H10">
+        <v>114.274593</v>
+      </c>
+      <c r="I10">
+        <v>0.2659141976634544</v>
+      </c>
+      <c r="J10">
+        <v>0.2659141976634544</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>5.465192666666667</v>
+      </c>
+      <c r="N10">
+        <v>16.395578</v>
+      </c>
+      <c r="O10">
+        <v>0.02364505887183517</v>
+      </c>
+      <c r="P10">
+        <v>0.02364505887183517</v>
+      </c>
+      <c r="Q10">
+        <v>208.177555883306</v>
+      </c>
+      <c r="R10">
+        <v>1873.598002949754</v>
+      </c>
+      <c r="S10">
+        <v>0.006287556858609195</v>
+      </c>
+      <c r="T10">
+        <v>0.006287556858609195</v>
       </c>
     </row>
   </sheetData>
